--- a/data/trans_camb/P32A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 3,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 5,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 6,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 5,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 2,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 4,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 5,03</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>186,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>227,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,88%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-27,77; 684,45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 824,03</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31,91; 1026,71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,83; 379,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,4; 643,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,33; 727,63</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 1,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 0,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 2,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 1,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 3,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 2,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,34</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>616,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>272,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>761,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>197,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,48%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>26,99; 437,94</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-18,74; 273,3</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-60,42; 121,12</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,74; 513,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 276,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,33; 255,51</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 1,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 1,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 2,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,09; 0,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 4,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 0,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 2,41</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>246,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>442,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>185,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>189,95%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>220,81%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-46,61; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,15; 1330,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,0; 1225,24</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 2,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 1,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 1,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 1,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 1,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 2,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 1,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 1,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 1,6</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>138,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>308,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>375,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,16%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,34%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,63; 322,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,03; 222,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 195,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,93; 1299,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,87; 1513,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,87; 1983,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,55; 286,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,44; 241,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,17; 245,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>2,69</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,43</t>
+          <t>1,04; 6,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,36</t>
+          <t>-1,02; 3,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,03</t>
+          <t>0,76; 5,1</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>227,48%</t>
+          <t>224,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>120,05%</t>
+          <t>130,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>224,88%</t>
+          <t>226,23%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,91; 1026,71</t>
+          <t>30,8; 1012,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 727,63</t>
+          <t>8,54; 732,54</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,41</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 0,88</t>
+          <t>-0,93; 0,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,37</t>
+          <t>0,14; 2,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,34</t>
+          <t>-0,29; 1,21</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>761,27%</t>
+          <t>620,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>52,45%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,42; 121,12</t>
+          <t>-60,96; 116,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 255,51</t>
+          <t>-32,24; 234,19</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,13</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,97</t>
+          <t>-0,07; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,63</t>
+          <t>-0,69; 2,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,41</t>
+          <t>0,11; 2,39</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>246,4%</t>
+          <t>242,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>185,88%</t>
+          <t>177,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>220,81%</t>
+          <t>215,78%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,61; —</t>
+          <t>-47,28; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 1225,24</t>
+          <t>-30,28; 1221,38</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,52</t>
+          <t>-0,02; 1,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 2,49</t>
+          <t>0,24; 2,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,6</t>
+          <t>0,22; 1,52</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>67,2%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>375,92%</t>
+          <t>319,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>107,34%</t>
+          <t>96,28%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 195,91</t>
+          <t>-7,34; 195,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,87; 1983,76</t>
+          <t>3,29; 1836,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,17; 245,01</t>
+          <t>13,18; 233,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,93</t>
+          <t>-0,14; 3,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,11</t>
+          <t>0,31; 5,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,42</t>
+          <t>0,8; 6,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,0</t>
+          <t>-3,16; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,2</t>
+          <t>-0,56; 5,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,48</t>
+          <t>-0,97; 3,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,66</t>
+          <t>-0,53; 2,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,36</t>
+          <t>0,57; 4,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,1</t>
+          <t>0,68; 4,76</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,77; 684,45</t>
+          <t>-20,85; 587,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 824,03</t>
+          <t>-1,27; 819,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,8; 1012,27</t>
+          <t>13,26; 903,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 379,63</t>
+          <t>-42,66; 409,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,4; 643,69</t>
+          <t>3,9; 689,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,54; 732,54</t>
+          <t>18,42; 711,63</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,99</t>
+          <t>0,58; 2,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,84</t>
+          <t>-0,18; 1,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,88</t>
+          <t>-0,83; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,61</t>
+          <t>0,29; 2,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,36</t>
+          <t>-0,16; 1,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,63</t>
+          <t>-0,02; 2,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,49</t>
+          <t>0,75; 2,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,33</t>
+          <t>0,02; 1,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,21</t>
+          <t>-0,32; 1,18</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,99; 437,94</t>
+          <t>26,66; 400,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,74; 273,3</t>
+          <t>-18,5; 267,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 116,18</t>
+          <t>-56,84; 171,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,74; 513,74</t>
+          <t>54,19; 476,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 276,55</t>
+          <t>-4,08; 262,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 234,19</t>
+          <t>-33,67; 205,39</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 1,41</t>
+          <t>-0,99; 1,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,1</t>
+          <t>-0,98; 1,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,94</t>
+          <t>-0,08; 2,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,93</t>
+          <t>0,3; 5,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 2,5</t>
+          <t>-0,68; 2,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,84</t>
+          <t>-0,91; 0,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,3</t>
+          <t>0,03; 2,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,39</t>
+          <t>0,18; 2,17</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,28; —</t>
+          <t>-58,93; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 1330,85</t>
+          <t>-29,04; 1458,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 1221,38</t>
+          <t>-7,18; 1248,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,49</t>
+          <t>0,7; 2,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,74</t>
+          <t>0,19; 1,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,48</t>
+          <t>-0,07; 1,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,33</t>
+          <t>-0,12; 1,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,88</t>
+          <t>0,31; 1,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,16</t>
+          <t>0,15; 2,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,82</t>
+          <t>0,57; 1,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,49</t>
+          <t>0,37; 1,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,52</t>
+          <t>0,15; 1,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,63; 322,17</t>
+          <t>40,42; 311,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,03; 222,7</t>
+          <t>11,76; 233,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 195,08</t>
+          <t>-7,52; 208,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,93; 1299,42</t>
+          <t>-55,61; 1060,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,87; 1513,41</t>
+          <t>13,39; 1568,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,29; 1836,07</t>
+          <t>5,26; 1568,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,55; 286,64</t>
+          <t>53,12; 292,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,44; 241,23</t>
+          <t>28,26; 252,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,18; 233,71</t>
+          <t>12,36; 235,61</t>
         </is>
       </c>
     </row>
